--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Robert_Soderstrom/Thomas_Robert_Soderstrom.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Robert_Soderstrom/Thomas_Robert_Soderstrom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Robert Soderstrom  (né le 9 janvier 1936 à Chicago, mort le 1er septembre 1987)[1] est un botaniste et agrostologue américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Robert Soderstrom  (né le 9 janvier 1936 à Chicago, mort le 1er septembre 1987) est un botaniste et agrostologue américain.
 Son domaine d'étude de prédilection fut la famille des Graminées ou Poaceae. Il fut le conservateur des graminées au National Museum of Natural History (Muséum national d'histoire naturelle) à Washington pendant quelque vingt années.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1957, Thomas Robert Soderstrom obtient un baccalauréat universitaire en biologie (BSc) à l'université de l'Illinois et s'inscrit à l'école d'études supérieures (graduate school ) à l'université Yale, où il obtient une maîtrise ès sciences en biologie l'année suivante et un doctorat en botanique en 1961.
 Il rejoint le Muséum national en 1960 comme conservateur adjoint. Il devient par la suite une autorité en taxonomie et biologie des bambous, publiant environ 40 articles sur ces sujets et entreprenant des tournées de conférences dans de nombreux pays, notamment à la Conférence internationale sur les bambous qui s'est tenue en 1985 à Porto Rico.
-Son domaine de travail s'étendait à diverses régions d'Amérique latine, d'Afrique et d'Asie. Il fut non seulement un des membres fondateurs de l'Association de biologie tropicale, mais a également été membre de la Société linnéenne de Londres, de l'Association américaine pour l'avancement des sciences, et associé honoraire de la Société botanique du Brésil. Malgré des problèmes de santé, il entreprit l'organisation du premier symposium international sur la « systématique et l'évolution des graminées » qui s'est tenu à l'Institut Smithsonian en juillet 1986[2].
-Un de ses collaborateurs fut Cleofé E. Calderón (1929–2007), agrostologue d'origine argentine[3].
+Son domaine de travail s'étendait à diverses régions d'Amérique latine, d'Afrique et d'Asie. Il fut non seulement un des membres fondateurs de l'Association de biologie tropicale, mais a également été membre de la Société linnéenne de Londres, de l'Association américaine pour l'avancement des sciences, et associé honoraire de la Société botanique du Brésil. Malgré des problèmes de santé, il entreprit l'organisation du premier symposium international sur la « systématique et l'évolution des graminées » qui s'est tenu à l'Institut Smithsonian en juillet 1986.
+Un de ses collaborateurs fut Cleofé E. Calderón (1929–2007), agrostologue d'origine argentine.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs taxons ont reçu des noms en hommage à Thomas Robert Soderstrom : Soderstromia, Ilex soderstromii, Anthurium soderstromii, Lessingianthus soderstromii, Vriesea soderstromii, Ouratea soderstromii, Cryptochloa soderstromii, Ocellochloa soderstromii, Poa soderstromii, Raddia soderstromii.
 </t>
@@ -577,7 +593,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Soderstrom, TR; FO Zuloaga. 1989. A revision of the genus Olyra and the new segregate genus Parodiolyra (Poaceae, Bambusoideae, Olyreae). Ed. Smithsonian. pp. iv, 79
 Judziewicz, EJ; TR Soderstrom. 1989. Morphological, anatomical, and taxonomic studies in Anomochloa and Streptochaeta (Poaceae, Bambusoideae). Ed. Smithsonian. pp. iii, 52
